--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.998635923278915</v>
+        <v>0.99999801046644</v>
       </c>
       <c r="E2">
-        <v>0.998635923278915</v>
+        <v>0.99999801046644</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4358888251034725</v>
+        <v>0.1818332035706449</v>
       </c>
       <c r="E3">
-        <v>0.4358888251034725</v>
+        <v>0.1818332035706449</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.414789257686972E-05</v>
+        <v>1.912089694004327E-05</v>
       </c>
       <c r="E4">
-        <v>4.414789257686972E-05</v>
+        <v>1.912089694004327E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.750430598481881E-23</v>
+        <v>3.415870495040572E-25</v>
       </c>
       <c r="E5">
-        <v>2.750430598481881E-23</v>
+        <v>3.415870495040572E-25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.112465104789363E-14</v>
+        <v>7.037253649584015E-15</v>
       </c>
       <c r="E6">
-        <v>1.112465104789363E-14</v>
+        <v>7.037253649584015E-15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999494</v>
       </c>
       <c r="E7">
-        <v>1.77635683940025E-15</v>
+        <v>5.062616992290714E-14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02045627761140142</v>
+        <v>7.021676074409973E-05</v>
       </c>
       <c r="E8">
-        <v>0.9795437223885985</v>
+        <v>0.9999297832392559</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9995502571786624</v>
+        <v>0.9976351319404879</v>
       </c>
       <c r="E9">
-        <v>0.0004497428213375843</v>
+        <v>0.002364868059512082</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.184518596589569E-17</v>
+        <v>2.529889376191617E-12</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.9999999999974701</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.709157154606547E-32</v>
+        <v>2.218110811393918E-36</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>12.27204322814941</v>
+        <v>13.16938495635986</v>
       </c>
       <c r="G11">
         <v>0.6</v>
